--- a/components.xlsx
+++ b/components.xlsx
@@ -219,13 +219,10 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left style="none">
+    <border diagonalUp="0">
+      <bottom style="none">
         <color rgb="FFC7C7C7"/>
-      </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
+      </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
       <left style="none">
@@ -354,10 +351,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AMK19"/>
+  <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A20" workbookViewId="0" tabSelected="1">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,17 +616,17 @@
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
+      <c r="B6" s="6" t="str">
+        <v>C1</v>
       </c>
       <c r="C6" s="12">
-        <v>9000</v>
-      </c>
-      <c r="D6" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2.3</v>
+        <v>420</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.5</v>
       </c>
       <c r="F6" s="13">
         <v>4</v>
@@ -638,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="H6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13">
         <v>1</v>
       </c>
       <c r="K6" s="14">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L6" s="15">
         <v>0</v>
@@ -677,28 +674,28 @@
         <v>0</v>
       </c>
       <c r="V6" s="13">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="W6" s="14">
         <v>0</v>
       </c>
       <c r="X6" s="15">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:1025" ht="18" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="6" t="str">
+        <v>C2</v>
       </c>
       <c r="C7" s="12">
-        <v>9000</v>
-      </c>
-      <c r="D7" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2.3</v>
+        <v>545</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3</v>
       </c>
       <c r="F7" s="13">
         <v>6</v>
@@ -707,16 +704,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="13">
         <v>1</v>
       </c>
       <c r="K7" s="14">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="L7" s="15">
         <v>0</v>
@@ -744,28 +741,28 @@
         <v>0</v>
       </c>
       <c r="V7" s="13">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="W7" s="14">
         <v>0</v>
       </c>
       <c r="X7" s="15">
-        <v>30000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
+      <c r="B8" s="6" t="str">
+        <v>C3</v>
       </c>
       <c r="C8" s="12">
-        <v>9000</v>
-      </c>
-      <c r="D8" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2.3</v>
+        <v>630</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2.5</v>
       </c>
       <c r="F8" s="13">
         <v>5</v>
@@ -774,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="H8" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="13">
         <v>1</v>
       </c>
       <c r="K8" s="14">
-        <v>38000</v>
+        <v>9500</v>
       </c>
       <c r="L8" s="15">
         <v>0</v>
@@ -811,28 +808,28 @@
         <v>0</v>
       </c>
       <c r="V8" s="13">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="W8" s="14">
         <v>0</v>
       </c>
       <c r="X8" s="15">
-        <v>45000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:1025" ht="18" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
+      <c r="B9" s="6" t="str">
+        <v>C4</v>
       </c>
       <c r="C9" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2.3</v>
+        <v>817</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3</v>
       </c>
       <c r="F9" s="13">
         <v>4</v>
@@ -841,16 +838,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="13">
         <v>1</v>
       </c>
       <c r="K9" s="14">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L9" s="15">
         <v>0</v>
@@ -878,28 +875,30 @@
         <v>0</v>
       </c>
       <c r="V9" s="13">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="W9" s="14">
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <v>25000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1025" ht="18" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="str">
+        <v>C5</v>
+      </c>
       <c r="C10" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1800</v>
-      </c>
-      <c r="E10" s="13">
-        <v>3</v>
+        <v>610</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2.5</v>
       </c>
       <c r="F10" s="13">
         <v>8</v>
@@ -908,16 +907,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J10" s="13">
         <v>1</v>
       </c>
       <c r="K10" s="14">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
@@ -945,28 +944,30 @@
         <v>0</v>
       </c>
       <c r="V10" s="13">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="W10" s="14">
         <v>0</v>
       </c>
       <c r="X10" s="15">
-        <v>1800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:1025" ht="18" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="str">
+        <v>C6</v>
+      </c>
       <c r="C11" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="13">
+        <v>743</v>
+      </c>
+      <c r="D11" s="12">
         <v>2000</v>
       </c>
-      <c r="E11" s="13">
-        <v>2.7</v>
+      <c r="E11" s="12">
+        <v>3</v>
       </c>
       <c r="F11" s="13">
         <v>7</v>
@@ -975,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J11" s="13">
         <v>1</v>
@@ -1012,28 +1013,30 @@
         <v>0</v>
       </c>
       <c r="V11" s="13">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="W11" s="14">
         <v>0</v>
       </c>
       <c r="X11" s="15">
-        <v>2500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:1025" ht="18" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="str">
+        <v>C7</v>
+      </c>
       <c r="C12" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="13">
-        <v>3500</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2</v>
+        <v>914</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.5</v>
       </c>
       <c r="F12" s="13">
         <v>8</v>
@@ -1042,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J12" s="13">
         <v>1</v>
@@ -1079,30 +1082,30 @@
         <v>0</v>
       </c>
       <c r="V12" s="13">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="W12" s="14">
         <v>0</v>
       </c>
       <c r="X12" s="15">
-        <v>4000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:1025" ht="18" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
+      <c r="B13" s="6" t="str">
+        <v>C8</v>
       </c>
       <c r="C13" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="13">
-        <v>5000</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2.3</v>
+        <v>1115</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3</v>
       </c>
       <c r="F13" s="13">
         <v>4</v>
@@ -1111,10 +1114,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J13" s="13">
         <v>1</v>
@@ -1150,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="V13" s="13">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="W13" s="14">
         <v>0</v>
       </c>
       <c r="X13" s="15">
-        <v>3500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:1025" ht="18" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>23</v>
+      <c r="B14" s="6" t="str">
+        <v>C9</v>
       </c>
       <c r="C14" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="13">
-        <v>6500</v>
-      </c>
-      <c r="E14" s="13">
-        <v>2</v>
+        <v>813</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2.5</v>
       </c>
       <c r="F14" s="13">
         <v>5</v>
@@ -1180,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J14" s="13">
         <v>1</v>
@@ -1217,28 +1220,28 @@
         <v>0</v>
       </c>
       <c r="V14" s="13">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="W14" s="14">
         <v>0</v>
       </c>
       <c r="X14" s="15">
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:1025" ht="18" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>24</v>
+      <c r="B15" s="6" t="str">
+        <v>C10</v>
       </c>
       <c r="C15" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1.5</v>
+        <v>945</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3</v>
       </c>
       <c r="F15" s="13">
         <v>4</v>
@@ -1247,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="13">
         <v>1</v>
@@ -1284,28 +1287,28 @@
         <v>0</v>
       </c>
       <c r="V15" s="13">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="W15" s="14">
         <v>0</v>
       </c>
       <c r="X15" s="15">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:1025" ht="18" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
+      <c r="B16" s="6" t="str">
+        <v>C11</v>
       </c>
       <c r="C16" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="13">
-        <v>4500</v>
-      </c>
-      <c r="E16" s="13">
-        <v>2</v>
+        <v>1220</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2.5</v>
       </c>
       <c r="F16" s="13">
         <v>6</v>
@@ -1314,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J16" s="13">
         <v>1</v>
@@ -1351,28 +1354,28 @@
         <v>0</v>
       </c>
       <c r="V16" s="13">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="W16" s="14">
         <v>0</v>
       </c>
       <c r="X16" s="15">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:1025" ht="18" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
+      <c r="B17" s="6" t="str">
+        <v>C12</v>
       </c>
       <c r="C17" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="13">
-        <v>5500</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2.5</v>
+        <v>1417</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
       </c>
       <c r="F17" s="13">
         <v>5</v>
@@ -1381,16 +1384,16 @@
         <v>1</v>
       </c>
       <c r="H17" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J17" s="13">
         <v>1</v>
       </c>
       <c r="K17" s="14">
-        <v>400000</v>
+        <v>40000</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -1418,28 +1421,28 @@
         <v>0</v>
       </c>
       <c r="V17" s="13">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="W17" s="14">
         <v>0</v>
       </c>
       <c r="X17" s="15">
-        <v>2800</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:1025" ht="18" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>27</v>
+      <c r="B18" s="6" t="str">
+        <v>C13</v>
       </c>
       <c r="C18" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="13">
-        <v>5000</v>
-      </c>
-      <c r="E18" s="13">
-        <v>3</v>
+        <v>878</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2.5</v>
       </c>
       <c r="F18" s="13">
         <v>3</v>
@@ -1448,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="H18" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J18" s="13">
         <v>1</v>
       </c>
       <c r="K18" s="14">
-        <v>400000</v>
+        <v>40000</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
@@ -1485,28 +1488,28 @@
         <v>0</v>
       </c>
       <c r="V18" s="13">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="W18" s="14">
         <v>0</v>
       </c>
       <c r="X18" s="15">
-        <v>4500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:1025" ht="18" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>28</v>
+      <c r="B19" s="6" t="str">
+        <v>C14</v>
       </c>
       <c r="C19" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="13">
-        <v>4500</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2.5</v>
+        <v>1007</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3</v>
       </c>
       <c r="F19" s="13">
         <v>2</v>
@@ -1515,16 +1518,16 @@
         <v>1</v>
       </c>
       <c r="H19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J19" s="13">
         <v>1</v>
       </c>
       <c r="K19" s="14">
-        <v>360000</v>
+        <v>36000</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
@@ -1552,18 +1555,970 @@
         <v>0</v>
       </c>
       <c r="V19" s="13">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="W19" s="14">
         <v>0</v>
       </c>
       <c r="X19" s="15">
-        <v>4000</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1025">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="str">
+        <v>C15</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1318</v>
+      </c>
+      <c r="D20" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14">
+        <v>40000</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>10000</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
+        <v>3</v>
+      </c>
+      <c r="S20" s="13">
+        <v>1</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="13">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="W20" s="14">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1025">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="str">
+        <v>C16</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1511</v>
+      </c>
+      <c r="D21" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
+        <v>36000</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>9000</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
+        <v>2</v>
+      </c>
+      <c r="S21" s="13">
+        <v>1</v>
+      </c>
+      <c r="T21" s="13">
+        <v>0</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0</v>
+      </c>
+      <c r="V21" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="W21" s="14">
+        <v>0</v>
+      </c>
+      <c r="X21" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1025">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="str">
+        <v>C17</v>
+      </c>
+      <c r="C22" s="12">
+        <v>967</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="13">
+        <v>3</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14">
+        <v>40000</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>10000</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13">
+        <v>3</v>
+      </c>
+      <c r="S22" s="13">
+        <v>1</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0</v>
+      </c>
+      <c r="V22" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="W22" s="14">
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1025">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="str">
+        <v>C18</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1091</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="12">
+        <v>3</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1</v>
+      </c>
+      <c r="K23" s="14">
+        <v>36000</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>9000</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>2</v>
+      </c>
+      <c r="S23" s="13">
+        <v>1</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="W23" s="14">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1025">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="str">
+        <v>C19</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1450</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F24" s="13">
+        <v>3</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14">
+        <v>40000</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>10000</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0</v>
+      </c>
+      <c r="R24" s="13">
+        <v>3</v>
+      </c>
+      <c r="S24" s="13">
+        <v>1</v>
+      </c>
+      <c r="T24" s="13">
+        <v>0</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0</v>
+      </c>
+      <c r="V24" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="W24" s="14">
+        <v>0</v>
+      </c>
+      <c r="X24" s="15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1025">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="str">
+        <v>C20</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1637</v>
+      </c>
+      <c r="D25" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14">
+        <v>36000</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>9000</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>2</v>
+      </c>
+      <c r="S25" s="13">
+        <v>1</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="W25" s="14">
+        <v>0</v>
+      </c>
+      <c r="X25" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1025">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="str">
+        <v>C21</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1098</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F26" s="13">
+        <v>3</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14">
+        <v>40000</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>10000</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13">
+        <v>3</v>
+      </c>
+      <c r="S26" s="13">
+        <v>1</v>
+      </c>
+      <c r="T26" s="13">
+        <v>0</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0</v>
+      </c>
+      <c r="V26" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="W26" s="14">
+        <v>0</v>
+      </c>
+      <c r="X26" s="15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1025">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="str">
+        <v>C22</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1213</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="12">
+        <v>3</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14">
+        <v>36000</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>9000</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>2</v>
+      </c>
+      <c r="S27" s="13">
+        <v>1</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="W27" s="14">
+        <v>0</v>
+      </c>
+      <c r="X27" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1025">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="str">
+        <v>C23</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1646</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F28" s="13">
+        <v>3</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14">
+        <v>40000</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>10000</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <v>3</v>
+      </c>
+      <c r="S28" s="13">
+        <v>1</v>
+      </c>
+      <c r="T28" s="13">
+        <v>0</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0</v>
+      </c>
+      <c r="V28" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="W28" s="14">
+        <v>0</v>
+      </c>
+      <c r="X28" s="15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1025">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="str">
+        <v>C24</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1820</v>
+      </c>
+      <c r="D29" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="12">
+        <v>3</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14">
+        <v>36000</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <v>9000</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13">
+        <v>2</v>
+      </c>
+      <c r="S29" s="13">
+        <v>1</v>
+      </c>
+      <c r="T29" s="13">
+        <v>0</v>
+      </c>
+      <c r="U29" s="13">
+        <v>0</v>
+      </c>
+      <c r="V29" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="W29" s="14">
+        <v>0</v>
+      </c>
+      <c r="X29" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1025">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="str">
+        <v>C25</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1281</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F30" s="13">
+        <v>3</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14">
+        <v>40000</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>10000</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13">
+        <v>3</v>
+      </c>
+      <c r="S30" s="13">
+        <v>1</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0</v>
+      </c>
+      <c r="V30" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="W30" s="14">
+        <v>0</v>
+      </c>
+      <c r="X30" s="15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1025">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="str">
+        <v>C26</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1492</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="12">
+        <v>3</v>
+      </c>
+      <c r="F31" s="13">
+        <v>2</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14">
+        <v>36000</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>9000</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13">
+        <v>2</v>
+      </c>
+      <c r="S31" s="13">
+        <v>1</v>
+      </c>
+      <c r="T31" s="13">
+        <v>0</v>
+      </c>
+      <c r="U31" s="13">
+        <v>0</v>
+      </c>
+      <c r="V31" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="W31" s="14">
+        <v>0</v>
+      </c>
+      <c r="X31" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1025">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="str">
+        <v>C27</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2233</v>
+      </c>
+      <c r="D32" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F32" s="13">
+        <v>3</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>1</v>
+      </c>
+      <c r="K32" s="14">
+        <v>40000</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>10000</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>0</v>
+      </c>
+      <c r="R32" s="13">
+        <v>3</v>
+      </c>
+      <c r="S32" s="13">
+        <v>1</v>
+      </c>
+      <c r="T32" s="13">
+        <v>0</v>
+      </c>
+      <c r="U32" s="13">
+        <v>0</v>
+      </c>
+      <c r="V32" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="W32" s="14">
+        <v>0</v>
+      </c>
+      <c r="X32" s="15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1025">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="str">
+        <v>C28</v>
+      </c>
+      <c r="C33" s="12">
+        <v>2424</v>
+      </c>
+      <c r="D33" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="12">
+        <v>3</v>
+      </c>
+      <c r="F33" s="13">
+        <v>2</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="14">
+        <v>36000</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>9000</v>
+      </c>
+      <c r="O33" s="16"/>
+      <c r="P33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>0</v>
+      </c>
+      <c r="R33" s="13">
+        <v>2</v>
+      </c>
+      <c r="S33" s="13">
+        <v>1</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0</v>
+      </c>
+      <c r="V33" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="W33" s="14">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="A13:A17"/>
@@ -1611,7 +2566,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1657,7 +2612,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="20">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20">
